--- a/static/output/Excel/LRcountsxl1-sol3.xlsx
+++ b/static/output/Excel/LRcountsxl1-sol3.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BC0595-F997-4B92-AA63-B8396B42BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A1FE8E-D049-D24B-B471-28AF6BB92A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="760" windowWidth="19100" windowHeight="20660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Exposure" sheetId="3" r:id="rId2"/>
     <sheet name="IBNR" sheetId="4" r:id="rId3"/>
-    <sheet name="comparison" sheetId="7" r:id="rId4"/>
-    <sheet name="Exposure_quarter" sheetId="5" r:id="rId5"/>
-    <sheet name="IBNR_quarter" sheetId="6" r:id="rId6"/>
-    <sheet name="comparison quarter" sheetId="8" r:id="rId7"/>
+    <sheet name="Exposure_quarter" sheetId="5" r:id="rId4"/>
+    <sheet name="IBNR_quarter" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>sum from 12</t>
   </si>
@@ -200,30 +198,6 @@
   <si>
     <t>Quarter 1 - all</t>
   </si>
-  <si>
-    <t>True rectangle:</t>
-  </si>
-  <si>
-    <t>A/E</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;- most of where the gap comes from: frequency was estimated higher (20.44) </t>
-  </si>
-  <si>
-    <t>than true (20) and even actual (18.8) - it was a good year!</t>
-  </si>
-  <si>
-    <t>The fact that 323 was lower than expected is not recognised by the model here.</t>
-  </si>
-  <si>
-    <t>Heatmap of A/E:</t>
-  </si>
-  <si>
-    <t>(average)</t>
-  </si>
 </sst>
 </file>
 
@@ -308,7 +282,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,12 +322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -440,16 +408,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,7 +429,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1191,7 +1153,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1807,7 +1769,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2693,7 +2655,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5966,9 +5928,9 @@
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>10854</v>
       </c>
@@ -6021,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10166</v>
       </c>
@@ -6074,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10066</v>
       </c>
@@ -6127,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10352</v>
       </c>
@@ -6180,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9805</v>
       </c>
@@ -6233,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10373</v>
       </c>
@@ -6286,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8396</v>
       </c>
@@ -6339,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8638</v>
       </c>
@@ -6392,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8303</v>
       </c>
@@ -6445,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9668</v>
       </c>
@@ -6498,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9301</v>
       </c>
@@ -6551,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8414</v>
       </c>
@@ -6604,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7735</v>
       </c>
@@ -6657,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8493</v>
       </c>
@@ -6710,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8696</v>
       </c>
@@ -6763,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8772</v>
       </c>
@@ -6829,12 +6791,12 @@
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="18" width="6.7109375" customWidth="1"/>
+    <col min="3" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
@@ -6856,7 +6818,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -6915,7 +6877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
@@ -6931,7 +6893,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -7004,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -7074,7 +7036,7 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -7141,7 +7103,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -7205,7 +7167,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -7266,7 +7228,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -7324,7 +7286,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -7379,7 +7341,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -7431,7 +7393,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -7480,7 +7442,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -7526,7 +7488,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -7569,7 +7531,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -7609,7 +7571,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -7646,7 +7608,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -7680,7 +7642,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -7711,7 +7673,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -7739,7 +7701,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7754,7 +7716,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -7774,7 +7736,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -7791,7 +7753,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7806,7 +7768,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -7876,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7891,7 +7853,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -7946,7 +7908,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7961,7 +7923,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -8023,7 +7985,7 @@
         <v>3.2168821977739175E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8039,7 +8001,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8055,7 +8017,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -8125,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8143,7 +8105,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8159,7 +8121,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -8220,7 +8182,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -8238,7 +8200,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8254,7 +8216,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -8270,7 +8232,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
@@ -8288,7 +8250,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8305,7 +8267,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -8335,7 +8297,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8353,7 +8315,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -8391,7 +8353,7 @@
         <v>-2.9324886571643161</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -8429,7 +8391,7 @@
         <v>5.3264316441573117E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8445,7 +8407,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -8463,7 +8425,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -8484,7 +8446,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -8505,7 +8467,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -8526,7 +8488,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -8556,18 +8518,18 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -8594,7 +8556,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
@@ -8656,7 +8618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -8677,7 +8639,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f>Exposure!A4</f>
         <v>0</v>
@@ -8759,7 +8721,7 @@
         <v>9.9361300008119088E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>Exposure!A5</f>
         <v>1</v>
@@ -8841,7 +8803,7 @@
         <v>0.19805606076978319</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f>Exposure!A6</f>
         <v>2</v>
@@ -8923,7 +8885,7 @@
         <v>9.9884125387883688E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <f>Exposure!A7</f>
         <v>3</v>
@@ -9005,7 +8967,7 @@
         <v>0.20406162345243509</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <f>Exposure!A8</f>
         <v>4</v>
@@ -9087,7 +9049,7 @@
         <v>0.10223583510831831</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <f>Exposure!A9</f>
         <v>5</v>
@@ -9169,7 +9131,7 @@
         <v>0.19936366926989341</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <f>Exposure!A10</f>
         <v>6</v>
@@ -9251,7 +9213,7 @@
         <v>9.9548482558705645E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <f>Exposure!A11</f>
         <v>7</v>
@@ -9333,7 +9295,7 @@
         <v>0.20492736735553099</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>Exposure!A12</f>
         <v>8</v>
@@ -9415,7 +9377,7 @@
         <v>9.9716806871415486E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f>Exposure!A13</f>
         <v>9</v>
@@ -9497,7 +9459,7 @@
         <v>0.19817789260584248</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <f>Exposure!A14</f>
         <v>10</v>
@@ -9579,7 +9541,7 @@
         <v>0.1003751532344606</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f>Exposure!A15</f>
         <v>11</v>
@@ -9661,7 +9623,7 @@
         <v>0.2129982954626817</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f>Exposure!A16</f>
         <v>12</v>
@@ -9743,7 +9705,7 @@
         <v>0.11029243644382421</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f>Exposure!A17</f>
         <v>13</v>
@@ -9825,7 +9787,7 @@
         <v>0.15829603407083809</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <f>Exposure!A18</f>
         <v>14</v>
@@ -9907,7 +9869,7 @@
         <v>0.1106548686045858</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f>Exposure!A19</f>
         <v>15</v>
@@ -9989,7 +9951,7 @@
         <v>0.17205242713066876</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -10010,7 +9972,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -10034,15 +9996,15 @@
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -10062,7 +10024,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -10090,7 +10052,7 @@
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -10118,7 +10080,7 @@
       <c r="Z27" s="23"/>
       <c r="AA27" s="23"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -10138,7 +10100,7 @@
       <c r="S28" s="20"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -10158,7 +10120,7 @@
       <c r="S29" s="20"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -10178,7 +10140,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -10198,7 +10160,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -10218,7 +10180,7 @@
       <c r="S32" s="20"/>
       <c r="T32" s="19"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -10238,7 +10200,7 @@
       <c r="S33" s="20"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -10258,7 +10220,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -10278,7 +10240,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -10298,7 +10260,7 @@
       <c r="S36" s="20"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -10318,7 +10280,7 @@
       <c r="S37" s="20"/>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -10338,7 +10300,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="19"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -10358,7 +10320,7 @@
       <c r="S39" s="20"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -10378,7 +10340,7 @@
       <c r="S40" s="20"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -10396,7 +10358,7 @@
       <c r="R41" s="19"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="20"/>
@@ -10424,1511 +10386,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FDE8BE-5204-4CE9-B4B0-E23FF0597D4E}">
-  <dimension ref="A1:AD35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="22">
-        <v>91</v>
-      </c>
-      <c r="D2" s="22">
-        <v>377</v>
-      </c>
-      <c r="E2" s="22">
-        <v>301</v>
-      </c>
-      <c r="F2" s="22">
-        <v>170</v>
-      </c>
-      <c r="G2" s="22">
-        <v>72</v>
-      </c>
-      <c r="H2" s="22">
-        <v>44</v>
-      </c>
-      <c r="I2" s="22">
-        <v>11</v>
-      </c>
-      <c r="J2" s="22">
-        <v>6</v>
-      </c>
-      <c r="K2" s="22">
-        <v>3</v>
-      </c>
-      <c r="L2" s="22">
-        <v>1</v>
-      </c>
-      <c r="M2" s="22">
-        <v>1</v>
-      </c>
-      <c r="N2" s="22">
-        <v>1</v>
-      </c>
-      <c r="O2" s="22">
-        <v>1</v>
-      </c>
-      <c r="P2" s="27">
-        <f>SUM(C2:N2)</f>
-        <v>1078</v>
-      </c>
-      <c r="Q2" s="20">
-        <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
-        <v>1</v>
-      </c>
-      <c r="R2" s="33">
-        <f>Q2/IBNR!R4</f>
-        <v>2.1388073655374096</v>
-      </c>
-      <c r="S2" s="34">
-        <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
-        <v>1079</v>
-      </c>
-      <c r="T2" s="33">
-        <f>S2/IBNR!S4</f>
-        <v>1.0004937095341748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="22">
-        <v>63</v>
-      </c>
-      <c r="D3" s="22">
-        <v>550</v>
-      </c>
-      <c r="E3" s="22">
-        <v>555</v>
-      </c>
-      <c r="F3" s="22">
-        <v>404</v>
-      </c>
-      <c r="G3" s="22">
-        <v>236</v>
-      </c>
-      <c r="H3" s="22">
-        <v>104</v>
-      </c>
-      <c r="I3" s="22">
-        <v>56</v>
-      </c>
-      <c r="J3" s="22">
-        <v>26</v>
-      </c>
-      <c r="K3" s="22">
-        <v>13</v>
-      </c>
-      <c r="L3" s="22">
-        <v>5</v>
-      </c>
-      <c r="M3" s="22">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22">
-        <v>1</v>
-      </c>
-      <c r="O3" s="22">
-        <v>0</v>
-      </c>
-      <c r="P3" s="27">
-        <f>SUM(C3:N3)</f>
-        <v>2013</v>
-      </c>
-      <c r="Q3" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="33">
-        <f>Q3/IBNR!R5</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="34">
-        <f t="shared" si="1"/>
-        <v>2013</v>
-      </c>
-      <c r="T3" s="33">
-        <f>S3/IBNR!S5</f>
-        <v>0.99978250445041417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="22">
-        <v>12</v>
-      </c>
-      <c r="D4" s="22">
-        <v>169</v>
-      </c>
-      <c r="E4" s="22">
-        <v>274</v>
-      </c>
-      <c r="F4" s="22">
-        <v>225</v>
-      </c>
-      <c r="G4" s="22">
-        <v>166</v>
-      </c>
-      <c r="H4" s="22">
-        <v>72</v>
-      </c>
-      <c r="I4" s="22">
-        <v>47</v>
-      </c>
-      <c r="J4" s="22">
-        <v>19</v>
-      </c>
-      <c r="K4" s="22">
-        <v>11</v>
-      </c>
-      <c r="L4" s="22">
-        <v>6</v>
-      </c>
-      <c r="M4" s="22">
-        <v>4</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22">
-        <v>1</v>
-      </c>
-      <c r="P4" s="27">
-        <f>SUM(C4:N4)</f>
-        <v>1005</v>
-      </c>
-      <c r="Q4" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R4" s="33">
-        <f>Q4/IBNR!R6</f>
-        <v>2.3062403283875961</v>
-      </c>
-      <c r="S4" s="34">
-        <f t="shared" si="1"/>
-        <v>1006</v>
-      </c>
-      <c r="T4" s="33">
-        <f>S4/IBNR!S6</f>
-        <v>1.0005633329163615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="22">
-        <v>385</v>
-      </c>
-      <c r="D5" s="22">
-        <v>906</v>
-      </c>
-      <c r="E5" s="22">
-        <v>441</v>
-      </c>
-      <c r="F5" s="22">
-        <v>235</v>
-      </c>
-      <c r="G5" s="22">
-        <v>80</v>
-      </c>
-      <c r="H5" s="22">
-        <v>41</v>
-      </c>
-      <c r="I5" s="22">
-        <v>16</v>
-      </c>
-      <c r="J5" s="22">
-        <v>2</v>
-      </c>
-      <c r="K5" s="22">
-        <v>3</v>
-      </c>
-      <c r="L5" s="22">
-        <v>2</v>
-      </c>
-      <c r="M5" s="22">
-        <v>1</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="27">
-        <f>SUM(C5:N5)</f>
-        <v>2112</v>
-      </c>
-      <c r="Q5" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="33">
-        <f>Q5/IBNR!R7</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="34">
-        <f t="shared" si="1"/>
-        <v>2112</v>
-      </c>
-      <c r="T5" s="33">
-        <f>S5/IBNR!S7</f>
-        <v>0.99978890537545884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="22">
-        <v>92</v>
-      </c>
-      <c r="D6" s="22">
-        <v>361</v>
-      </c>
-      <c r="E6" s="22">
-        <v>265</v>
-      </c>
-      <c r="F6" s="22">
-        <v>158</v>
-      </c>
-      <c r="G6" s="22">
-        <v>69</v>
-      </c>
-      <c r="H6" s="22">
-        <v>29</v>
-      </c>
-      <c r="I6" s="22">
-        <v>17</v>
-      </c>
-      <c r="J6" s="22">
-        <v>9</v>
-      </c>
-      <c r="K6" s="22">
-        <v>2</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
-        <v>0</v>
-      </c>
-      <c r="O6" s="22">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27">
-        <f>SUM(C6:N6)</f>
-        <v>1002</v>
-      </c>
-      <c r="Q6" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="33">
-        <f>Q6/IBNR!R8</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="34">
-        <f t="shared" si="1"/>
-        <v>1002</v>
-      </c>
-      <c r="T6" s="33">
-        <f>S6/IBNR!S8</f>
-        <v>0.99957865740774465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="22">
-        <v>69</v>
-      </c>
-      <c r="D7" s="22">
-        <v>550</v>
-      </c>
-      <c r="E7" s="22">
-        <v>637</v>
-      </c>
-      <c r="F7" s="22">
-        <v>370</v>
-      </c>
-      <c r="G7" s="22">
-        <v>235</v>
-      </c>
-      <c r="H7" s="22">
-        <v>122</v>
-      </c>
-      <c r="I7" s="22">
-        <v>53</v>
-      </c>
-      <c r="J7" s="22">
-        <v>19</v>
-      </c>
-      <c r="K7" s="22">
-        <v>7</v>
-      </c>
-      <c r="L7" s="22">
-        <v>4</v>
-      </c>
-      <c r="M7" s="22">
-        <v>1</v>
-      </c>
-      <c r="N7" s="22">
-        <v>2</v>
-      </c>
-      <c r="O7" s="22">
-        <v>1</v>
-      </c>
-      <c r="P7" s="27">
-        <f>SUM(C7:M7)</f>
-        <v>2067</v>
-      </c>
-      <c r="Q7" s="20">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R7" s="33">
-        <f>Q7/IBNR!R9</f>
-        <v>3.0019772925577057</v>
-      </c>
-      <c r="S7" s="34">
-        <f t="shared" si="1"/>
-        <v>2070</v>
-      </c>
-      <c r="T7" s="33">
-        <f>S7/IBNR!S9</f>
-        <v>1.000967436799135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="22">
-        <v>6</v>
-      </c>
-      <c r="D8" s="22">
-        <v>143</v>
-      </c>
-      <c r="E8" s="22">
-        <v>212</v>
-      </c>
-      <c r="F8" s="22">
-        <v>200</v>
-      </c>
-      <c r="G8" s="22">
-        <v>120</v>
-      </c>
-      <c r="H8" s="22">
-        <v>85</v>
-      </c>
-      <c r="I8" s="22">
-        <v>38</v>
-      </c>
-      <c r="J8" s="22">
-        <v>22</v>
-      </c>
-      <c r="K8" s="22">
-        <v>6</v>
-      </c>
-      <c r="L8" s="22">
-        <v>2</v>
-      </c>
-      <c r="M8" s="22">
-        <v>3</v>
-      </c>
-      <c r="N8" s="22">
-        <v>1</v>
-      </c>
-      <c r="O8" s="22">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
-        <f>SUM(C8:L8)</f>
-        <v>834</v>
-      </c>
-      <c r="Q8" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R8" s="33">
-        <f>Q8/IBNR!R10</f>
-        <v>2.2110935880984783</v>
-      </c>
-      <c r="S8" s="34">
-        <f t="shared" si="1"/>
-        <v>838</v>
-      </c>
-      <c r="T8" s="33">
-        <f>S8/IBNR!S10</f>
-        <v>1.0026213408577471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="22">
-        <v>315</v>
-      </c>
-      <c r="D9" s="22">
-        <v>711</v>
-      </c>
-      <c r="E9" s="22">
-        <v>421</v>
-      </c>
-      <c r="F9" s="22">
-        <v>175</v>
-      </c>
-      <c r="G9" s="22">
-        <v>87</v>
-      </c>
-      <c r="H9" s="22">
-        <v>38</v>
-      </c>
-      <c r="I9" s="22">
-        <v>13</v>
-      </c>
-      <c r="J9" s="22">
-        <v>4</v>
-      </c>
-      <c r="K9" s="22">
-        <v>2</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>1</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <f>SUM(C9:K9)</f>
-        <v>1766</v>
-      </c>
-      <c r="Q9" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="33">
-        <f>Q9/IBNR!R11</f>
-        <v>0.24023451402612958</v>
-      </c>
-      <c r="S9" s="34">
-        <f t="shared" si="1"/>
-        <v>1767</v>
-      </c>
-      <c r="T9" s="33">
-        <f>S9/IBNR!S11</f>
-        <v>0.99821338490685796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="22">
-        <v>78</v>
-      </c>
-      <c r="D10" s="22">
-        <v>288</v>
-      </c>
-      <c r="E10" s="22">
-        <v>239</v>
-      </c>
-      <c r="F10" s="22">
-        <v>99</v>
-      </c>
-      <c r="G10" s="22">
-        <v>66</v>
-      </c>
-      <c r="H10" s="22">
-        <v>32</v>
-      </c>
-      <c r="I10" s="22">
-        <v>11</v>
-      </c>
-      <c r="J10" s="22">
-        <v>6</v>
-      </c>
-      <c r="K10" s="22">
-        <v>3</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>1</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="27">
-        <f>SUM(C10:J10)</f>
-        <v>819</v>
-      </c>
-      <c r="Q10" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R10" s="33">
-        <f>Q10/IBNR!R12</f>
-        <v>0.44699492530537016</v>
-      </c>
-      <c r="S10" s="34">
-        <f t="shared" si="1"/>
-        <v>823</v>
-      </c>
-      <c r="T10" s="33">
-        <f>S10/IBNR!S12</f>
-        <v>0.99402300194754345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="22">
-        <v>85</v>
-      </c>
-      <c r="D11" s="22">
-        <v>499</v>
-      </c>
-      <c r="E11" s="22">
-        <v>555</v>
-      </c>
-      <c r="F11" s="22">
-        <v>350</v>
-      </c>
-      <c r="G11" s="22">
-        <v>226</v>
-      </c>
-      <c r="H11" s="22">
-        <v>113</v>
-      </c>
-      <c r="I11" s="22">
-        <v>65</v>
-      </c>
-      <c r="J11" s="22">
-        <v>23</v>
-      </c>
-      <c r="K11" s="22">
-        <v>15</v>
-      </c>
-      <c r="L11" s="22">
-        <v>4</v>
-      </c>
-      <c r="M11" s="22">
-        <v>3</v>
-      </c>
-      <c r="N11" s="22">
-        <v>0</v>
-      </c>
-      <c r="O11" s="22">
-        <v>0</v>
-      </c>
-      <c r="P11" s="27">
-        <f>SUM(C11:I11)</f>
-        <v>1893</v>
-      </c>
-      <c r="Q11" s="20">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="R11" s="33">
-        <f>Q11/IBNR!R13</f>
-        <v>1.95789518444625</v>
-      </c>
-      <c r="S11" s="34">
-        <f t="shared" si="1"/>
-        <v>1938</v>
-      </c>
-      <c r="T11" s="33">
-        <f>S11/IBNR!S13</f>
-        <v>1.0114907722766855</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="22">
-        <v>18</v>
-      </c>
-      <c r="D12" s="22">
-        <v>144</v>
-      </c>
-      <c r="E12" s="22">
-        <v>262</v>
-      </c>
-      <c r="F12" s="22">
-        <v>222</v>
-      </c>
-      <c r="G12" s="22">
-        <v>150</v>
-      </c>
-      <c r="H12" s="22">
-        <v>84</v>
-      </c>
-      <c r="I12" s="22">
-        <v>35</v>
-      </c>
-      <c r="J12" s="22">
-        <v>31</v>
-      </c>
-      <c r="K12" s="22">
-        <v>9</v>
-      </c>
-      <c r="L12" s="22">
-        <v>2</v>
-      </c>
-      <c r="M12" s="22">
-        <v>2</v>
-      </c>
-      <c r="N12" s="22">
-        <v>3</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="27">
-        <f>SUM(C12:H12)</f>
-        <v>880</v>
-      </c>
-      <c r="Q12" s="20">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="R12" s="33">
-        <f>Q12/IBNR!R14</f>
-        <v>1.5301561998827165</v>
-      </c>
-      <c r="S12" s="34">
-        <f t="shared" si="1"/>
-        <v>962</v>
-      </c>
-      <c r="T12" s="33">
-        <f>S12/IBNR!S14</f>
-        <v>1.0304316895653898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="22">
-        <v>331</v>
-      </c>
-      <c r="D13" s="22">
-        <v>747</v>
-      </c>
-      <c r="E13" s="22">
-        <v>378</v>
-      </c>
-      <c r="F13" s="22">
-        <v>156</v>
-      </c>
-      <c r="G13" s="22">
-        <v>71</v>
-      </c>
-      <c r="H13" s="22">
-        <v>27</v>
-      </c>
-      <c r="I13" s="22">
-        <v>11</v>
-      </c>
-      <c r="J13" s="22">
-        <v>6</v>
-      </c>
-      <c r="K13" s="22">
-        <v>3</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>1</v>
-      </c>
-      <c r="N13" s="22">
-        <v>0</v>
-      </c>
-      <c r="O13" s="22">
-        <v>0</v>
-      </c>
-      <c r="P13" s="27">
-        <f>SUM(C13:G13)</f>
-        <v>1683</v>
-      </c>
-      <c r="Q13" s="20">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="R13" s="33">
-        <f>Q13/IBNR!R15</f>
-        <v>0.43969066360190112</v>
-      </c>
-      <c r="S13" s="34">
-        <f t="shared" si="1"/>
-        <v>1731</v>
-      </c>
-      <c r="T13" s="33">
-        <f>S13/IBNR!S15</f>
-        <v>0.96586945548918124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="22">
-        <v>67</v>
-      </c>
-      <c r="D14" s="22">
-        <v>272</v>
-      </c>
-      <c r="E14" s="22">
-        <v>182</v>
-      </c>
-      <c r="F14" s="22">
-        <v>125</v>
-      </c>
-      <c r="G14" s="22">
-        <v>57</v>
-      </c>
-      <c r="H14" s="22">
-        <v>27</v>
-      </c>
-      <c r="I14" s="22">
-        <v>11</v>
-      </c>
-      <c r="J14" s="22">
-        <v>2</v>
-      </c>
-      <c r="K14" s="22">
-        <v>2</v>
-      </c>
-      <c r="L14" s="22">
-        <v>2</v>
-      </c>
-      <c r="M14" s="22">
-        <v>1</v>
-      </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-      <c r="O14" s="22">
-        <v>0</v>
-      </c>
-      <c r="P14" s="27">
-        <f>SUM(C14:F14)</f>
-        <v>646</v>
-      </c>
-      <c r="Q14" s="20">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="R14" s="33">
-        <f>Q14/IBNR!R16</f>
-        <v>0.49248716647347596</v>
-      </c>
-      <c r="S14" s="34">
-        <f t="shared" si="1"/>
-        <v>748</v>
-      </c>
-      <c r="T14" s="33">
-        <f>S14/IBNR!S16</f>
-        <v>0.87678992160583091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="22">
-        <v>60</v>
-      </c>
-      <c r="D15" s="22">
-        <v>419</v>
-      </c>
-      <c r="E15" s="22">
-        <v>437</v>
-      </c>
-      <c r="F15" s="22">
-        <v>319</v>
-      </c>
-      <c r="G15" s="22">
-        <v>200</v>
-      </c>
-      <c r="H15" s="22">
-        <v>86</v>
-      </c>
-      <c r="I15" s="22">
-        <v>41</v>
-      </c>
-      <c r="J15" s="22">
-        <v>24</v>
-      </c>
-      <c r="K15" s="22">
-        <v>9</v>
-      </c>
-      <c r="L15" s="22">
-        <v>4</v>
-      </c>
-      <c r="M15" s="22">
-        <v>1</v>
-      </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-      <c r="O15" s="22">
-        <v>0</v>
-      </c>
-      <c r="P15" s="27">
-        <f>SUM(C15:E15)</f>
-        <v>916</v>
-      </c>
-      <c r="Q15" s="20">
-        <f t="shared" si="0"/>
-        <v>684</v>
-      </c>
-      <c r="R15" s="33">
-        <f>Q15/IBNR!R17</f>
-        <v>1.5966080300916092</v>
-      </c>
-      <c r="S15" s="34">
-        <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="T15" s="33">
-        <f>S15/IBNR!S17</f>
-        <v>1.1901147131766163</v>
-      </c>
-      <c r="V15" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="22">
-        <v>11</v>
-      </c>
-      <c r="D16" s="22">
-        <v>169</v>
-      </c>
-      <c r="E16" s="22">
-        <v>247</v>
-      </c>
-      <c r="F16" s="22">
-        <v>202</v>
-      </c>
-      <c r="G16" s="22">
-        <v>139</v>
-      </c>
-      <c r="H16" s="22">
-        <v>82</v>
-      </c>
-      <c r="I16" s="22">
-        <v>38</v>
-      </c>
-      <c r="J16" s="22">
-        <v>21</v>
-      </c>
-      <c r="K16" s="22">
-        <v>12</v>
-      </c>
-      <c r="L16" s="22">
-        <v>5</v>
-      </c>
-      <c r="M16" s="22">
-        <v>4</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
-      </c>
-      <c r="O16" s="22">
-        <v>1</v>
-      </c>
-      <c r="P16" s="27">
-        <f>SUM(C16:D16)</f>
-        <v>180</v>
-      </c>
-      <c r="Q16" s="20">
-        <f t="shared" si="0"/>
-        <v>751</v>
-      </c>
-      <c r="R16" s="33">
-        <f>Q16/IBNR!R18</f>
-        <v>0.96004532041577584</v>
-      </c>
-      <c r="S16" s="34">
-        <f t="shared" si="1"/>
-        <v>931</v>
-      </c>
-      <c r="T16" s="33">
-        <f>S16/IBNR!S18</f>
-        <v>0.96751926888881867</v>
-      </c>
-      <c r="U16" s="36"/>
-      <c r="V16" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-    </row>
-    <row r="17" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="22">
-        <v>323</v>
-      </c>
-      <c r="D17" s="22">
-        <v>713</v>
-      </c>
-      <c r="E17" s="22">
-        <v>344</v>
-      </c>
-      <c r="F17" s="22">
-        <v>160</v>
-      </c>
-      <c r="G17" s="22">
-        <v>66</v>
-      </c>
-      <c r="H17" s="22">
-        <v>29</v>
-      </c>
-      <c r="I17" s="22">
-        <v>9</v>
-      </c>
-      <c r="J17" s="22">
-        <v>5</v>
-      </c>
-      <c r="K17" s="22">
-        <v>1</v>
-      </c>
-      <c r="L17" s="22">
-        <v>1</v>
-      </c>
-      <c r="M17" s="22">
-        <v>1</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
-      </c>
-      <c r="O17" s="22">
-        <v>0</v>
-      </c>
-      <c r="P17" s="27">
-        <f>SUM(C17)</f>
-        <v>323</v>
-      </c>
-      <c r="Q17" s="20">
-        <f t="shared" si="0"/>
-        <v>1329</v>
-      </c>
-      <c r="R17" s="33">
-        <f>Q17/IBNR!R19</f>
-        <v>1.1203429668368412</v>
-      </c>
-      <c r="S17" s="34">
-        <f t="shared" si="1"/>
-        <v>1652</v>
-      </c>
-      <c r="T17" s="33">
-        <f>S17/IBNR!S19</f>
-        <v>1.0945878330738368</v>
-      </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="3"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="20">
-        <f>SUM(Q2:Q17)</f>
-        <v>3055</v>
-      </c>
-      <c r="R19" s="33">
-        <f>Q19/IBNR!R21</f>
-        <v>1.0880068736428652</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="35">
-        <f>AVERAGE(T2:T17)</f>
-        <v>1.0083022455169872</v>
-      </c>
-      <c r="U19" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="O20">
-        <f>IF(IBNR!O4&gt;0,O2/IBNR!O4,"")</f>
-        <v>2.1388073655377697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="O21">
-        <f>IF(IBNR!O5&gt;0,O3/IBNR!O5,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="O22">
-        <f>IF(IBNR!O6&gt;0,O4/IBNR!O6,"")</f>
-        <v>2.3062403283873389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="O23">
-        <f>IF(IBNR!O7&gt;0,O5/IBNR!O7,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="O24">
-        <f>IF(IBNR!O8&gt;0,O6/IBNR!O8,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="M25">
-        <f>IF(IBNR!M9&gt;0,M7/IBNR!M9,"")</f>
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f>IF(IBNR!N9&gt;0,N7/IBNR!N9,"")</f>
-        <v>3.619839041860037</v>
-      </c>
-      <c r="O25">
-        <f>IF(IBNR!O9&gt;0,O7/IBNR!O9,"")</f>
-        <v>2.2379846857752774</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <f>IF(IBNR!L10&gt;0,L8/IBNR!L10,"")</f>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f>IF(IBNR!M10&gt;0,M8/IBNR!M10,"")</f>
-        <v>2.9994491562782208</v>
-      </c>
-      <c r="N26">
-        <f>IF(IBNR!N10&gt;0,N8/IBNR!N10,"")</f>
-        <v>2.2360999512395288</v>
-      </c>
-      <c r="O26">
-        <f>IF(IBNR!O10&gt;0,O8/IBNR!O10,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>IF(IBNR!K11&gt;0,K9/IBNR!K11,"")</f>
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f>IF(IBNR!L11&gt;0,L9/IBNR!L11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>IF(IBNR!M11&gt;0,M9/IBNR!M11,"")</f>
-        <v>0.97180578513976779</v>
-      </c>
-      <c r="N27">
-        <f>IF(IBNR!N11&gt;0,N9/IBNR!N11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f>IF(IBNR!O11&gt;0,O9/IBNR!O11,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f>IF(IBNR!J12&gt;0,J10/IBNR!J12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f>IF(IBNR!K12&gt;0,K10/IBNR!K12,"")</f>
-        <v>0.60636897451313176</v>
-      </c>
-      <c r="L28">
-        <f>IF(IBNR!L12&gt;0,L10/IBNR!L12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f>IF(IBNR!M12&gt;0,M10/IBNR!M12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>IF(IBNR!N12&gt;0,N10/IBNR!N12,"")</f>
-        <v>2.2611459942920731</v>
-      </c>
-      <c r="O28">
-        <f>IF(IBNR!O12&gt;0,O10/IBNR!O12,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <f>IF(IBNR!I13&gt;0,I11/IBNR!I13,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f>IF(IBNR!J13&gt;0,J11/IBNR!J13,"")</f>
-        <v>1.830616283625206</v>
-      </c>
-      <c r="K29">
-        <f>IF(IBNR!K13&gt;0,K11/IBNR!K13,"")</f>
-        <v>2.6037865098171977</v>
-      </c>
-      <c r="L29">
-        <f>IF(IBNR!L13&gt;0,L11/IBNR!L13,"")</f>
-        <v>1.5529056394781084</v>
-      </c>
-      <c r="M29">
-        <f>IF(IBNR!M13&gt;0,M11/IBNR!M13,"")</f>
-        <v>2.6048174509838584</v>
-      </c>
-      <c r="N29">
-        <f>IF(IBNR!N13&gt;0,N11/IBNR!N13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f>IF(IBNR!O13&gt;0,O11/IBNR!O13,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <f>IF(IBNR!H14&gt;0,H12/IBNR!H14,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <f>IF(IBNR!I14&gt;0,I12/IBNR!I14,"")</f>
-        <v>1.1118908985814884</v>
-      </c>
-      <c r="J30">
-        <f>IF(IBNR!J14&gt;0,J12/IBNR!J14,"")</f>
-        <v>2.5647094755250404</v>
-      </c>
-      <c r="K30">
-        <f>IF(IBNR!K14&gt;0,K12/IBNR!K14,"")</f>
-        <v>1.6239162225725838</v>
-      </c>
-      <c r="L30">
-        <f>IF(IBNR!L14&gt;0,L12/IBNR!L14,"")</f>
-        <v>0.80709019043513341</v>
-      </c>
-      <c r="M30">
-        <f>IF(IBNR!M14&gt;0,M12/IBNR!M14,"")</f>
-        <v>1.8050657718605125</v>
-      </c>
-      <c r="N30">
-        <f>IF(IBNR!N14&gt;0,N12/IBNR!N14,"")</f>
-        <v>6.0555731181401189</v>
-      </c>
-      <c r="O30">
-        <f>IF(IBNR!O14&gt;0,O12/IBNR!O14,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <f>IF(IBNR!G15&gt;0,G13/IBNR!G15,"")</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f>IF(IBNR!H15&gt;0,H13/IBNR!H15,"")</f>
-        <v>0.44489146112749001</v>
-      </c>
-      <c r="I31">
-        <f>IF(IBNR!I15&gt;0,I13/IBNR!I15,"")</f>
-        <v>0.38629043337556673</v>
-      </c>
-      <c r="J31">
-        <f>IF(IBNR!J15&gt;0,J13/IBNR!J15,"")</f>
-        <v>0.54872515466216221</v>
-      </c>
-      <c r="K31">
-        <f>IF(IBNR!K15&gt;0,K13/IBNR!K15,"")</f>
-        <v>0.59836957396987567</v>
-      </c>
-      <c r="L31">
-        <f>IF(IBNR!L15&gt;0,L13/IBNR!L15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f>IF(IBNR!M15&gt;0,M13/IBNR!M15,"")</f>
-        <v>0.99767748657443711</v>
-      </c>
-      <c r="N31">
-        <f>IF(IBNR!N15&gt;0,N13/IBNR!N15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f>IF(IBNR!O15&gt;0,O13/IBNR!O15,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f>IF(IBNR!F16&gt;0,F14/IBNR!F16,"")</f>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>IF(IBNR!G16&gt;0,G14/IBNR!G16,"")</f>
-        <v>0.53393763472045741</v>
-      </c>
-      <c r="H32">
-        <f>IF(IBNR!H16&gt;0,H14/IBNR!H16,"")</f>
-        <v>0.48394528169705253</v>
-      </c>
-      <c r="I32">
-        <f>IF(IBNR!I16&gt;0,I14/IBNR!I16,"")</f>
-        <v>0.42020009132799202</v>
-      </c>
-      <c r="J32">
-        <f>IF(IBNR!J16&gt;0,J14/IBNR!J16,"")</f>
-        <v>0.19896459604944766</v>
-      </c>
-      <c r="K32">
-        <f>IF(IBNR!K16&gt;0,K14/IBNR!K16,"")</f>
-        <v>0.43393075590454938</v>
-      </c>
-      <c r="L32">
-        <f>IF(IBNR!L16&gt;0,L14/IBNR!L16,"")</f>
-        <v>0.97049073836291877</v>
-      </c>
-      <c r="M32">
-        <f>IF(IBNR!M16&gt;0,M14/IBNR!M16,"")</f>
-        <v>1.0852564152601571</v>
-      </c>
-      <c r="N32">
-        <f>IF(IBNR!N16&gt;0,N14/IBNR!N16,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f>IF(IBNR!O16&gt;0,O14/IBNR!O16,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <f>IF(IBNR!E17&gt;0,E15/IBNR!E17,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>IF(IBNR!F17&gt;0,F15/IBNR!F17,"")</f>
-        <v>1.5870642885226638</v>
-      </c>
-      <c r="G33">
-        <f>IF(IBNR!G17&gt;0,G15/IBNR!G17,"")</f>
-        <v>1.7062586545215719</v>
-      </c>
-      <c r="H33">
-        <f>IF(IBNR!H17&gt;0,H15/IBNR!H17,"")</f>
-        <v>1.4038804978291328</v>
-      </c>
-      <c r="I33">
-        <f>IF(IBNR!I17&gt;0,I15/IBNR!I17,"")</f>
-        <v>1.42641700612593</v>
-      </c>
-      <c r="J33">
-        <f>IF(IBNR!J17&gt;0,J15/IBNR!J17,"")</f>
-        <v>2.1744841405050903</v>
-      </c>
-      <c r="K33">
-        <f>IF(IBNR!K17&gt;0,K15/IBNR!K17,"")</f>
-        <v>1.7784110192096549</v>
-      </c>
-      <c r="L33">
-        <f>IF(IBNR!L17&gt;0,L15/IBNR!L17,"")</f>
-        <v>1.7677489370627992</v>
-      </c>
-      <c r="M33">
-        <f>IF(IBNR!M17&gt;0,M15/IBNR!M17,"")</f>
-        <v>0.98839731214380244</v>
-      </c>
-      <c r="N33">
-        <f>IF(IBNR!N17&gt;0,N15/IBNR!N17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f>IF(IBNR!O17&gt;0,O15/IBNR!O17,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <f>IF(IBNR!D18&gt;0,D16/IBNR!D18,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f>IF(IBNR!E18&gt;0,E16/IBNR!E18,"")</f>
-        <v>0.71884514035992142</v>
-      </c>
-      <c r="F34">
-        <f>IF(IBNR!F18&gt;0,F16/IBNR!F18,"")</f>
-        <v>0.98151467849212637</v>
-      </c>
-      <c r="G34">
-        <f>IF(IBNR!G18&gt;0,G16/IBNR!G18,"")</f>
-        <v>1.1581672094332955</v>
-      </c>
-      <c r="H34">
-        <f>IF(IBNR!H18&gt;0,H16/IBNR!H18,"")</f>
-        <v>1.3073357432194856</v>
-      </c>
-      <c r="I34">
-        <f>IF(IBNR!I18&gt;0,I16/IBNR!I18,"")</f>
-        <v>1.2911831233172693</v>
-      </c>
-      <c r="J34">
-        <f>IF(IBNR!J18&gt;0,J16/IBNR!J18,"")</f>
-        <v>1.8582574838599371</v>
-      </c>
-      <c r="K34">
-        <f>IF(IBNR!K18&gt;0,K16/IBNR!K18,"")</f>
-        <v>2.3158608994399881</v>
-      </c>
-      <c r="L34">
-        <f>IF(IBNR!L18&gt;0,L16/IBNR!L18,"")</f>
-        <v>2.1581031109812492</v>
-      </c>
-      <c r="M34">
-        <f>IF(IBNR!M18&gt;0,M16/IBNR!M18,"")</f>
-        <v>3.8612963992811942</v>
-      </c>
-      <c r="N34">
-        <f>IF(IBNR!N18&gt;0,N16/IBNR!N18,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f>IF(IBNR!O18&gt;0,O16/IBNR!O18,"")</f>
-        <v>2.6695739587795484</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>IF(IBNR!C19&gt;0,C17/IBNR!C19,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>IF(IBNR!D19&gt;0,D17/IBNR!D19,"")</f>
-        <v>1.7952800580608839</v>
-      </c>
-      <c r="E35">
-        <f>IF(IBNR!E19&gt;0,E17/IBNR!E19,"")</f>
-        <v>0.99247080107483943</v>
-      </c>
-      <c r="F35">
-        <f>IF(IBNR!F19&gt;0,F17/IBNR!F19,"")</f>
-        <v>0.77070170562207663</v>
-      </c>
-      <c r="G35">
-        <f>IF(IBNR!G19&gt;0,G17/IBNR!G19,"")</f>
-        <v>0.54515664254914098</v>
-      </c>
-      <c r="H35">
-        <f>IF(IBNR!H19&gt;0,H17/IBNR!H19,"")</f>
-        <v>0.45834467355674763</v>
-      </c>
-      <c r="I35">
-        <f>IF(IBNR!I19&gt;0,I17/IBNR!I19,"")</f>
-        <v>0.30315704263356724</v>
-      </c>
-      <c r="J35">
-        <f>IF(IBNR!J19&gt;0,J17/IBNR!J19,"")</f>
-        <v>0.43860896900435409</v>
-      </c>
-      <c r="K35">
-        <f>IF(IBNR!K19&gt;0,K17/IBNR!K19,"")</f>
-        <v>0.19131637009357552</v>
-      </c>
-      <c r="L35">
-        <f>IF(IBNR!L19&gt;0,L17/IBNR!L19,"")</f>
-        <v>0.42788109104179067</v>
-      </c>
-      <c r="M35">
-        <f>IF(IBNR!M19&gt;0,M17/IBNR!M19,"")</f>
-        <v>0.95696059872746408</v>
-      </c>
-      <c r="N35">
-        <f>IF(IBNR!N19&gt;0,N17/IBNR!N19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f>IF(IBNR!O19&gt;0,O17/IBNR!O19,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C20:O35">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF6E6C5-F338-4C41-B70E-C8B2B16D60D4}">
   <dimension ref="A1:S38"/>
   <sheetViews>
@@ -11936,15 +10393,15 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
-    <col min="12" max="18" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
@@ -11966,7 +10423,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -12025,7 +10482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
@@ -12041,7 +10498,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -12114,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -12184,7 +10641,7 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -12251,7 +10708,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -12315,7 +10772,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -12376,7 +10833,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -12434,7 +10891,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -12489,7 +10946,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -12541,7 +10998,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -12590,7 +11047,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -12636,7 +11093,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -12679,7 +11136,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -12719,7 +11176,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -12756,7 +11213,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -12790,7 +11247,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -12821,7 +11278,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -12849,7 +11306,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12864,7 +11321,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -12884,7 +11341,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -12901,7 +11358,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12916,7 +11373,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -12986,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -13052,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -13116,7 +11573,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -13174,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
@@ -13192,7 +11649,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -13208,7 +11665,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -13224,7 +11681,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -13240,7 +11697,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -13303,7 +11760,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -13363,7 +11820,7 @@
         <v>3.5639420790020193E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>38</v>
@@ -13421,7 +11878,7 @@
         <v>0.21754718024776834</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
@@ -13479,7 +11936,7 @@
         <v>0.16011712874688444</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
@@ -13496,7 +11953,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -13512,7 +11969,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -13534,32 +11991,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6AAB0A-6A58-4D16-B9DE-68B0D279451E}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:V66"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -13586,7 +12043,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
@@ -13648,7 +12105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -13669,7 +12126,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f>Exposure!A4</f>
         <v>0</v>
@@ -13735,23 +12192,23 @@
         <v>1078</v>
       </c>
       <c r="Q4" s="26">
-        <f>P4/B4</f>
+        <f t="shared" ref="Q4:Q19" si="0">P4/B4</f>
         <v>9.9318223696333155E-2</v>
       </c>
       <c r="R4" s="20">
-        <f>S4-P4</f>
+        <f t="shared" ref="R4:R19" si="1">S4-P4</f>
         <v>0.30024957118871498</v>
       </c>
       <c r="S4" s="20">
-        <f>SUM(C4:O4)</f>
+        <f t="shared" ref="S4:S19" si="2">SUM(C4:O4)</f>
         <v>1078.3002495711887</v>
       </c>
       <c r="T4" s="26">
-        <f>S4/B4</f>
+        <f t="shared" ref="T4:T19" si="3">S4/B4</f>
         <v>9.9345886269687558E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>Exposure!A5</f>
         <v>1</v>
@@ -13817,23 +12274,23 @@
         <v>2013</v>
       </c>
       <c r="Q5" s="26">
-        <f>P5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.19801298445799725</v>
       </c>
       <c r="R5" s="20">
-        <f>S5-P5</f>
+        <f t="shared" si="1"/>
         <v>0.36231035175137549</v>
       </c>
       <c r="S5" s="20">
-        <f>SUM(C5:O5)</f>
+        <f t="shared" si="2"/>
         <v>2013.3623103517514</v>
       </c>
       <c r="T5" s="26">
-        <f>S5/B5</f>
+        <f t="shared" si="3"/>
         <v>0.19804862387878727</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f>Exposure!A6</f>
         <v>2</v>
@@ -13899,23 +12356,23 @@
         <v>1005</v>
       </c>
       <c r="Q6" s="26">
-        <f>P6/B6</f>
+        <f t="shared" si="0"/>
         <v>9.9841049076097754E-2</v>
       </c>
       <c r="R6" s="20">
-        <f>S6-P6</f>
+        <f t="shared" si="1"/>
         <v>2.1898299163740376</v>
       </c>
       <c r="S6" s="20">
-        <f>SUM(C6:O6)</f>
+        <f t="shared" si="2"/>
         <v>1007.189829916374</v>
       </c>
       <c r="T6" s="26">
-        <f>S6/B6</f>
+        <f t="shared" si="3"/>
         <v>0.10005859625634553</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <f>Exposure!A7</f>
         <v>3</v>
@@ -13981,23 +12438,23 @@
         <v>2112</v>
       </c>
       <c r="Q7" s="26">
-        <f>P7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.20401854714064915</v>
       </c>
       <c r="R7" s="20">
-        <f>S7-P7</f>
+        <f t="shared" si="1"/>
         <v>1.6575325167877963</v>
       </c>
       <c r="S7" s="20">
-        <f>SUM(C7:O7)</f>
+        <f t="shared" si="2"/>
         <v>2113.6575325167878</v>
       </c>
       <c r="T7" s="26">
-        <f>S7/B7</f>
+        <f t="shared" si="3"/>
         <v>0.20417866426939604</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <f>Exposure!A8</f>
         <v>4</v>
@@ -14063,23 +12520,23 @@
         <v>1002</v>
       </c>
       <c r="Q8" s="26">
-        <f>P8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.10219275879653238</v>
       </c>
       <c r="R8" s="20">
-        <f>S8-P8</f>
+        <f t="shared" si="1"/>
         <v>0.27123153173988612</v>
       </c>
       <c r="S8" s="20">
-        <f>SUM(C8:O8)</f>
+        <f t="shared" si="2"/>
         <v>1002.2712315317399</v>
       </c>
       <c r="T8" s="26">
-        <f>S8/B8</f>
+        <f t="shared" si="3"/>
         <v>0.10222042136988678</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <f>Exposure!A9</f>
         <v>5</v>
@@ -14145,23 +12602,23 @@
         <v>2067</v>
       </c>
       <c r="Q9" s="26">
-        <f>P9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.19926732864166585</v>
       </c>
       <c r="R9" s="20">
-        <f>S9-P9</f>
+        <f t="shared" si="1"/>
         <v>0.92788612282856775</v>
       </c>
       <c r="S9" s="20">
-        <f>SUM(C9:O9)</f>
+        <f t="shared" si="2"/>
         <v>2067.9278861228286</v>
       </c>
       <c r="T9" s="26">
-        <f>S9/B9</f>
+        <f t="shared" si="3"/>
         <v>0.1993567806924543</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <f>Exposure!A10</f>
         <v>6</v>
@@ -14227,23 +12684,23 @@
         <v>834</v>
       </c>
       <c r="Q10" s="26">
-        <f>P10/B10</f>
+        <f t="shared" si="0"/>
         <v>9.9333015721772278E-2</v>
       </c>
       <c r="R10" s="20">
-        <f>S10-P10</f>
+        <f t="shared" si="1"/>
         <v>5.9631935025919347</v>
       </c>
       <c r="S10" s="20">
-        <f>SUM(C10:O10)</f>
+        <f t="shared" si="2"/>
         <v>839.96319350259193</v>
       </c>
       <c r="T10" s="26">
-        <f>S10/B10</f>
+        <f t="shared" si="3"/>
         <v>0.10004325792074702</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <f>Exposure!A11</f>
         <v>7</v>
@@ -14309,23 +12766,23 @@
         <v>1766</v>
       </c>
       <c r="Q11" s="26">
-        <f>P11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.20444547348923361</v>
       </c>
       <c r="R11" s="20">
-        <f>S11-P11</f>
+        <f t="shared" si="1"/>
         <v>4.4092861033393547</v>
       </c>
       <c r="S11" s="20">
-        <f>SUM(C11:O11)</f>
+        <f t="shared" si="2"/>
         <v>1770.4092861033394</v>
       </c>
       <c r="T11" s="26">
-        <f>S11/B11</f>
+        <f t="shared" si="3"/>
         <v>0.20495592568920346</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>Exposure!A12</f>
         <v>8</v>
@@ -14391,23 +12848,23 @@
         <v>819</v>
       </c>
       <c r="Q12" s="26">
-        <f>P12/B12</f>
+        <f t="shared" si="0"/>
         <v>9.8639046127905583E-2</v>
       </c>
       <c r="R12" s="20">
-        <f>S12-P12</f>
+        <f t="shared" si="1"/>
         <v>3.811673134700527</v>
       </c>
       <c r="S12" s="20">
-        <f>SUM(C12:O12)</f>
+        <f t="shared" si="2"/>
         <v>822.81167313470053</v>
       </c>
       <c r="T12" s="26">
-        <f>S12/B12</f>
+        <f t="shared" si="3"/>
         <v>9.9098117925412565E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f>Exposure!A13</f>
         <v>9</v>
@@ -14473,23 +12930,23 @@
         <v>1893</v>
       </c>
       <c r="Q13" s="26">
-        <f>P13/B13</f>
+        <f t="shared" si="0"/>
         <v>0.19580057923045097</v>
       </c>
       <c r="R13" s="20">
-        <f>S13-P13</f>
+        <f t="shared" si="1"/>
         <v>34.856467521524792</v>
       </c>
       <c r="S13" s="20">
-        <f>SUM(C13:O13)</f>
+        <f t="shared" si="2"/>
         <v>1927.8564675215248</v>
       </c>
       <c r="T13" s="26">
-        <f>S13/B13</f>
+        <f t="shared" si="3"/>
         <v>0.19940592340934266</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <f>Exposure!A14</f>
         <v>10</v>
@@ -14555,23 +13012,23 @@
         <v>880</v>
       </c>
       <c r="Q14" s="26">
-        <f>P14/B14</f>
+        <f t="shared" si="0"/>
         <v>9.4613482421245024E-2</v>
       </c>
       <c r="R14" s="20">
-        <f>S14-P14</f>
+        <f t="shared" si="1"/>
         <v>85.044707868978549</v>
       </c>
       <c r="S14" s="20">
-        <f>SUM(C14:O14)</f>
+        <f t="shared" si="2"/>
         <v>965.04470786897855</v>
       </c>
       <c r="T14" s="26">
-        <f>S14/B14</f>
+        <f t="shared" si="3"/>
         <v>0.10375709148145131</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f>Exposure!A15</f>
         <v>11</v>
@@ -14637,23 +13094,23 @@
         <v>1683</v>
       </c>
       <c r="Q15" s="26">
-        <f>P15/B15</f>
+        <f t="shared" si="0"/>
         <v>0.20002376990729737</v>
       </c>
       <c r="R15" s="20">
-        <f>S15-P15</f>
+        <f t="shared" si="1"/>
         <v>56.831743059020255</v>
       </c>
       <c r="S15" s="20">
-        <f>SUM(C15:O15)</f>
+        <f t="shared" si="2"/>
         <v>1739.8317430590203</v>
       </c>
       <c r="T15" s="26">
-        <f>S15/B15</f>
+        <f t="shared" si="3"/>
         <v>0.20677819622759927</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f>Exposure!A16</f>
         <v>12</v>
@@ -14719,23 +13176,23 @@
         <v>646</v>
       </c>
       <c r="Q16" s="26">
-        <f>P16/B16</f>
+        <f t="shared" si="0"/>
         <v>8.3516483516483511E-2</v>
       </c>
       <c r="R16" s="20">
-        <f>S16-P16</f>
+        <f t="shared" si="1"/>
         <v>102.90248447221654</v>
       </c>
       <c r="S16" s="20">
-        <f>SUM(C16:O16)</f>
+        <f t="shared" si="2"/>
         <v>748.90248447221654</v>
       </c>
       <c r="T16" s="26">
-        <f>S16/B16</f>
+        <f t="shared" si="3"/>
         <v>9.6819972136033161E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f>Exposure!A17</f>
         <v>13</v>
@@ -14801,23 +13258,23 @@
         <v>916</v>
       </c>
       <c r="Q17" s="26">
-        <f>P17/B17</f>
+        <f t="shared" si="0"/>
         <v>0.10785352643353349</v>
       </c>
       <c r="R17" s="20">
-        <f>S17-P17</f>
+        <f t="shared" si="1"/>
         <v>686.84761883930423</v>
       </c>
       <c r="S17" s="20">
-        <f>SUM(C17:O17)</f>
+        <f t="shared" si="2"/>
         <v>1602.8476188393042</v>
       </c>
       <c r="T17" s="26">
-        <f>S17/B17</f>
+        <f t="shared" si="3"/>
         <v>0.18872572928756673</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <f>Exposure!A18</f>
         <v>14</v>
@@ -14883,23 +13340,23 @@
         <v>180</v>
       </c>
       <c r="Q18" s="26">
-        <f>P18/B18</f>
+        <f t="shared" si="0"/>
         <v>2.0699172033118676E-2</v>
       </c>
       <c r="R18" s="20">
-        <f>S18-P18</f>
+        <f t="shared" si="1"/>
         <v>728.51012295038959</v>
       </c>
       <c r="S18" s="20">
-        <f>SUM(C18:O18)</f>
+        <f t="shared" si="2"/>
         <v>908.51012295038959</v>
       </c>
       <c r="T18" s="26">
-        <f>S18/B18</f>
+        <f t="shared" si="3"/>
         <v>0.1044744851598884</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f>Exposure!A19</f>
         <v>15</v>
@@ -14965,23 +13422,23 @@
         <v>323</v>
       </c>
       <c r="Q19" s="26">
-        <f>P19/B19</f>
+        <f t="shared" si="0"/>
         <v>3.6821705426356592E-2</v>
       </c>
       <c r="R19" s="20">
-        <f>S19-P19</f>
+        <f t="shared" si="1"/>
         <v>1470.2473462921103</v>
       </c>
       <c r="S19" s="20">
-        <f>SUM(C19:O19)</f>
+        <f t="shared" si="2"/>
         <v>1793.2473462921103</v>
       </c>
       <c r="T19" s="26">
-        <f>S19/B19</f>
+        <f t="shared" si="3"/>
         <v>0.20442856204880419</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -15002,7 +13459,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -15026,1565 +13483,11 @@
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W25" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D5497B-1EA2-478C-B330-97FBAC0A592F}">
-  <dimension ref="A1:AB37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="22">
-        <v>91</v>
-      </c>
-      <c r="D2" s="22">
-        <v>377</v>
-      </c>
-      <c r="E2" s="22">
-        <v>301</v>
-      </c>
-      <c r="F2" s="22">
-        <v>170</v>
-      </c>
-      <c r="G2" s="22">
-        <v>72</v>
-      </c>
-      <c r="H2" s="22">
-        <v>44</v>
-      </c>
-      <c r="I2" s="22">
-        <v>11</v>
-      </c>
-      <c r="J2" s="22">
-        <v>6</v>
-      </c>
-      <c r="K2" s="22">
-        <v>3</v>
-      </c>
-      <c r="L2" s="22">
-        <v>1</v>
-      </c>
-      <c r="M2" s="22">
-        <v>1</v>
-      </c>
-      <c r="N2" s="22">
-        <v>1</v>
-      </c>
-      <c r="O2" s="22">
-        <v>1</v>
-      </c>
-      <c r="P2" s="27">
-        <f>SUM(C2:N2)</f>
-        <v>1078</v>
-      </c>
-      <c r="Q2" s="20">
-        <f>S2-P2</f>
-        <v>1</v>
-      </c>
-      <c r="R2" s="33">
-        <f>Q2/IBNR_quarter!R4</f>
-        <v>3.3305626250885565</v>
-      </c>
-      <c r="S2" s="34">
-        <f>SUM(C2:O2)</f>
-        <v>1079</v>
-      </c>
-      <c r="T2" s="33">
-        <f>S2/IBNR_quarter!S4</f>
-        <v>1.0006489383908512</v>
-      </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="22">
-        <v>63</v>
-      </c>
-      <c r="D3" s="22">
-        <v>550</v>
-      </c>
-      <c r="E3" s="22">
-        <v>555</v>
-      </c>
-      <c r="F3" s="22">
-        <v>404</v>
-      </c>
-      <c r="G3" s="22">
-        <v>236</v>
-      </c>
-      <c r="H3" s="22">
-        <v>104</v>
-      </c>
-      <c r="I3" s="22">
-        <v>56</v>
-      </c>
-      <c r="J3" s="22">
-        <v>26</v>
-      </c>
-      <c r="K3" s="22">
-        <v>13</v>
-      </c>
-      <c r="L3" s="22">
-        <v>5</v>
-      </c>
-      <c r="M3" s="22">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22">
-        <v>1</v>
-      </c>
-      <c r="O3" s="22">
-        <v>0</v>
-      </c>
-      <c r="P3" s="27">
-        <f>SUM(C3:N3)</f>
-        <v>2013</v>
-      </c>
-      <c r="Q3" s="20">
-        <f>S3-P3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="33">
-        <f>Q3/IBNR_quarter!R5</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="34">
-        <f>SUM(C3:O3)</f>
-        <v>2013</v>
-      </c>
-      <c r="T3" s="33">
-        <f>S3/IBNR_quarter!S5</f>
-        <v>0.99982004711725825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="22">
-        <v>12</v>
-      </c>
-      <c r="D4" s="22">
-        <v>169</v>
-      </c>
-      <c r="E4" s="22">
-        <v>274</v>
-      </c>
-      <c r="F4" s="22">
-        <v>225</v>
-      </c>
-      <c r="G4" s="22">
-        <v>166</v>
-      </c>
-      <c r="H4" s="22">
-        <v>72</v>
-      </c>
-      <c r="I4" s="22">
-        <v>47</v>
-      </c>
-      <c r="J4" s="22">
-        <v>19</v>
-      </c>
-      <c r="K4" s="22">
-        <v>11</v>
-      </c>
-      <c r="L4" s="22">
-        <v>6</v>
-      </c>
-      <c r="M4" s="22">
-        <v>4</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22">
-        <v>1</v>
-      </c>
-      <c r="P4" s="27">
-        <f>SUM(C4:N4)</f>
-        <v>1005</v>
-      </c>
-      <c r="Q4" s="20">
-        <f>S4-P4</f>
-        <v>1</v>
-      </c>
-      <c r="R4" s="33">
-        <f>Q4/IBNR_quarter!R6</f>
-        <v>0.45665647022295652</v>
-      </c>
-      <c r="S4" s="34">
-        <f>SUM(C4:O4)</f>
-        <v>1006</v>
-      </c>
-      <c r="T4" s="33">
-        <f>S4/IBNR_quarter!S6</f>
-        <v>0.99881866369076344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="22">
-        <v>385</v>
-      </c>
-      <c r="D5" s="22">
-        <v>906</v>
-      </c>
-      <c r="E5" s="22">
-        <v>441</v>
-      </c>
-      <c r="F5" s="22">
-        <v>235</v>
-      </c>
-      <c r="G5" s="22">
-        <v>80</v>
-      </c>
-      <c r="H5" s="22">
-        <v>41</v>
-      </c>
-      <c r="I5" s="22">
-        <v>16</v>
-      </c>
-      <c r="J5" s="22">
-        <v>2</v>
-      </c>
-      <c r="K5" s="22">
-        <v>3</v>
-      </c>
-      <c r="L5" s="22">
-        <v>2</v>
-      </c>
-      <c r="M5" s="22">
-        <v>1</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="27">
-        <f>SUM(C5:N5)</f>
-        <v>2112</v>
-      </c>
-      <c r="Q5" s="20">
-        <f>S5-P5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="33">
-        <f>Q5/IBNR_quarter!R7</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="34">
-        <f>SUM(C5:O5)</f>
-        <v>2112</v>
-      </c>
-      <c r="T5" s="33">
-        <f>S5/IBNR_quarter!S7</f>
-        <v>0.99921579892140133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="22">
-        <v>92</v>
-      </c>
-      <c r="D6" s="22">
-        <v>361</v>
-      </c>
-      <c r="E6" s="22">
-        <v>265</v>
-      </c>
-      <c r="F6" s="22">
-        <v>158</v>
-      </c>
-      <c r="G6" s="22">
-        <v>69</v>
-      </c>
-      <c r="H6" s="22">
-        <v>29</v>
-      </c>
-      <c r="I6" s="22">
-        <v>17</v>
-      </c>
-      <c r="J6" s="22">
-        <v>9</v>
-      </c>
-      <c r="K6" s="22">
-        <v>2</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
-        <v>0</v>
-      </c>
-      <c r="O6" s="22">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27">
-        <f>SUM(C6:N6)</f>
-        <v>1002</v>
-      </c>
-      <c r="Q6" s="20">
-        <f>S6-P6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="33">
-        <f>Q6/IBNR_quarter!R8</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="34">
-        <f>SUM(C6:O6)</f>
-        <v>1002</v>
-      </c>
-      <c r="T6" s="33">
-        <f>S6/IBNR_quarter!S8</f>
-        <v>0.99972938310189208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="22">
-        <v>69</v>
-      </c>
-      <c r="D7" s="22">
-        <v>550</v>
-      </c>
-      <c r="E7" s="22">
-        <v>637</v>
-      </c>
-      <c r="F7" s="22">
-        <v>370</v>
-      </c>
-      <c r="G7" s="22">
-        <v>235</v>
-      </c>
-      <c r="H7" s="22">
-        <v>122</v>
-      </c>
-      <c r="I7" s="22">
-        <v>53</v>
-      </c>
-      <c r="J7" s="22">
-        <v>19</v>
-      </c>
-      <c r="K7" s="22">
-        <v>7</v>
-      </c>
-      <c r="L7" s="22">
-        <v>4</v>
-      </c>
-      <c r="M7" s="22">
-        <v>1</v>
-      </c>
-      <c r="N7" s="22">
-        <v>2</v>
-      </c>
-      <c r="O7" s="22">
-        <v>1</v>
-      </c>
-      <c r="P7" s="27">
-        <f>SUM(C7:M7)</f>
-        <v>2067</v>
-      </c>
-      <c r="Q7" s="20">
-        <f>S7-P7</f>
-        <v>3</v>
-      </c>
-      <c r="R7" s="33">
-        <f>Q7/IBNR_quarter!R9</f>
-        <v>3.2331553691683639</v>
-      </c>
-      <c r="S7" s="34">
-        <f>SUM(C7:O7)</f>
-        <v>2070</v>
-      </c>
-      <c r="T7" s="33">
-        <f>S7/IBNR_quarter!S9</f>
-        <v>1.0010020242442093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="22">
-        <v>6</v>
-      </c>
-      <c r="D8" s="22">
-        <v>143</v>
-      </c>
-      <c r="E8" s="22">
-        <v>212</v>
-      </c>
-      <c r="F8" s="22">
-        <v>200</v>
-      </c>
-      <c r="G8" s="22">
-        <v>120</v>
-      </c>
-      <c r="H8" s="22">
-        <v>85</v>
-      </c>
-      <c r="I8" s="22">
-        <v>38</v>
-      </c>
-      <c r="J8" s="22">
-        <v>22</v>
-      </c>
-      <c r="K8" s="22">
-        <v>6</v>
-      </c>
-      <c r="L8" s="22">
-        <v>2</v>
-      </c>
-      <c r="M8" s="22">
-        <v>3</v>
-      </c>
-      <c r="N8" s="22">
-        <v>1</v>
-      </c>
-      <c r="O8" s="22">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
-        <f>SUM(C8:L8)</f>
-        <v>834</v>
-      </c>
-      <c r="Q8" s="20">
-        <f>S8-P8</f>
-        <v>4</v>
-      </c>
-      <c r="R8" s="33">
-        <f>Q8/IBNR_quarter!R10</f>
-        <v>0.67078151971110411</v>
-      </c>
-      <c r="S8" s="34">
-        <f>SUM(C8:O8)</f>
-        <v>838</v>
-      </c>
-      <c r="T8" s="33">
-        <f>S8/IBNR_quarter!S10</f>
-        <v>0.99766276246652486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="22">
-        <v>315</v>
-      </c>
-      <c r="D9" s="22">
-        <v>711</v>
-      </c>
-      <c r="E9" s="22">
-        <v>421</v>
-      </c>
-      <c r="F9" s="22">
-        <v>175</v>
-      </c>
-      <c r="G9" s="22">
-        <v>87</v>
-      </c>
-      <c r="H9" s="22">
-        <v>38</v>
-      </c>
-      <c r="I9" s="22">
-        <v>13</v>
-      </c>
-      <c r="J9" s="22">
-        <v>4</v>
-      </c>
-      <c r="K9" s="22">
-        <v>2</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>1</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <f>SUM(C9:K9)</f>
-        <v>1766</v>
-      </c>
-      <c r="Q9" s="20">
-        <f>S9-P9</f>
-        <v>1</v>
-      </c>
-      <c r="R9" s="33">
-        <f>Q9/IBNR_quarter!R11</f>
-        <v>0.22679408334212064</v>
-      </c>
-      <c r="S9" s="34">
-        <f>SUM(C9:O9)</f>
-        <v>1767</v>
-      </c>
-      <c r="T9" s="33">
-        <f>S9/IBNR_quarter!S11</f>
-        <v>0.99807429494970445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="22">
-        <v>78</v>
-      </c>
-      <c r="D10" s="22">
-        <v>288</v>
-      </c>
-      <c r="E10" s="22">
-        <v>239</v>
-      </c>
-      <c r="F10" s="22">
-        <v>99</v>
-      </c>
-      <c r="G10" s="22">
-        <v>66</v>
-      </c>
-      <c r="H10" s="22">
-        <v>32</v>
-      </c>
-      <c r="I10" s="22">
-        <v>11</v>
-      </c>
-      <c r="J10" s="22">
-        <v>6</v>
-      </c>
-      <c r="K10" s="22">
-        <v>3</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>1</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="27">
-        <f>SUM(C10:J10)</f>
-        <v>819</v>
-      </c>
-      <c r="Q10" s="20">
-        <f>S10-P10</f>
-        <v>4</v>
-      </c>
-      <c r="R10" s="33">
-        <f>Q10/IBNR_quarter!R12</f>
-        <v>1.0494079262948839</v>
-      </c>
-      <c r="S10" s="34">
-        <f>SUM(C10:O10)</f>
-        <v>823</v>
-      </c>
-      <c r="T10" s="33">
-        <f>S10/IBNR_quarter!S12</f>
-        <v>1.0002288821020027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="22">
-        <v>85</v>
-      </c>
-      <c r="D11" s="22">
-        <v>499</v>
-      </c>
-      <c r="E11" s="22">
-        <v>555</v>
-      </c>
-      <c r="F11" s="22">
-        <v>350</v>
-      </c>
-      <c r="G11" s="22">
-        <v>226</v>
-      </c>
-      <c r="H11" s="22">
-        <v>113</v>
-      </c>
-      <c r="I11" s="22">
-        <v>65</v>
-      </c>
-      <c r="J11" s="22">
-        <v>23</v>
-      </c>
-      <c r="K11" s="22">
-        <v>15</v>
-      </c>
-      <c r="L11" s="22">
-        <v>4</v>
-      </c>
-      <c r="M11" s="22">
-        <v>3</v>
-      </c>
-      <c r="N11" s="22">
-        <v>0</v>
-      </c>
-      <c r="O11" s="22">
-        <v>0</v>
-      </c>
-      <c r="P11" s="27">
-        <f>SUM(C11:I11)</f>
-        <v>1893</v>
-      </c>
-      <c r="Q11" s="20">
-        <f>S11-P11</f>
-        <v>45</v>
-      </c>
-      <c r="R11" s="33">
-        <f>Q11/IBNR_quarter!R13</f>
-        <v>1.2910086190521546</v>
-      </c>
-      <c r="S11" s="34">
-        <f>SUM(C11:O11)</f>
-        <v>1938</v>
-      </c>
-      <c r="T11" s="33">
-        <f>S11/IBNR_quarter!S13</f>
-        <v>1.0052615600016717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="22">
-        <v>18</v>
-      </c>
-      <c r="D12" s="22">
-        <v>144</v>
-      </c>
-      <c r="E12" s="22">
-        <v>262</v>
-      </c>
-      <c r="F12" s="22">
-        <v>222</v>
-      </c>
-      <c r="G12" s="22">
-        <v>150</v>
-      </c>
-      <c r="H12" s="22">
-        <v>84</v>
-      </c>
-      <c r="I12" s="22">
-        <v>35</v>
-      </c>
-      <c r="J12" s="22">
-        <v>31</v>
-      </c>
-      <c r="K12" s="22">
-        <v>9</v>
-      </c>
-      <c r="L12" s="22">
-        <v>2</v>
-      </c>
-      <c r="M12" s="22">
-        <v>2</v>
-      </c>
-      <c r="N12" s="22">
-        <v>3</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="27">
-        <f>SUM(C12:H12)</f>
-        <v>880</v>
-      </c>
-      <c r="Q12" s="20">
-        <f>S12-P12</f>
-        <v>82</v>
-      </c>
-      <c r="R12" s="33">
-        <f>Q12/IBNR_quarter!R14</f>
-        <v>0.96419873799003131</v>
-      </c>
-      <c r="S12" s="34">
-        <f>SUM(C12:O12)</f>
-        <v>962</v>
-      </c>
-      <c r="T12" s="33">
-        <f>S12/IBNR_quarter!S14</f>
-        <v>0.99684500848079682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="22">
-        <v>331</v>
-      </c>
-      <c r="D13" s="22">
-        <v>747</v>
-      </c>
-      <c r="E13" s="22">
-        <v>378</v>
-      </c>
-      <c r="F13" s="22">
-        <v>156</v>
-      </c>
-      <c r="G13" s="22">
-        <v>71</v>
-      </c>
-      <c r="H13" s="22">
-        <v>27</v>
-      </c>
-      <c r="I13" s="22">
-        <v>11</v>
-      </c>
-      <c r="J13" s="22">
-        <v>6</v>
-      </c>
-      <c r="K13" s="22">
-        <v>3</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>1</v>
-      </c>
-      <c r="N13" s="22">
-        <v>0</v>
-      </c>
-      <c r="O13" s="22">
-        <v>0</v>
-      </c>
-      <c r="P13" s="27">
-        <f>SUM(C13:G13)</f>
-        <v>1683</v>
-      </c>
-      <c r="Q13" s="20">
-        <f>S13-P13</f>
-        <v>48</v>
-      </c>
-      <c r="R13" s="33">
-        <f>Q13/IBNR_quarter!R15</f>
-        <v>0.8445984130761498</v>
-      </c>
-      <c r="S13" s="34">
-        <f>SUM(C13:O13)</f>
-        <v>1731</v>
-      </c>
-      <c r="T13" s="33">
-        <f>S13/IBNR_quarter!S15</f>
-        <v>0.99492379473230441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="22">
-        <v>67</v>
-      </c>
-      <c r="D14" s="22">
-        <v>272</v>
-      </c>
-      <c r="E14" s="22">
-        <v>182</v>
-      </c>
-      <c r="F14" s="22">
-        <v>125</v>
-      </c>
-      <c r="G14" s="22">
-        <v>57</v>
-      </c>
-      <c r="H14" s="22">
-        <v>27</v>
-      </c>
-      <c r="I14" s="22">
-        <v>11</v>
-      </c>
-      <c r="J14" s="22">
-        <v>2</v>
-      </c>
-      <c r="K14" s="22">
-        <v>2</v>
-      </c>
-      <c r="L14" s="22">
-        <v>2</v>
-      </c>
-      <c r="M14" s="22">
-        <v>1</v>
-      </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-      <c r="O14" s="22">
-        <v>0</v>
-      </c>
-      <c r="P14" s="27">
-        <f>SUM(C14:F14)</f>
-        <v>646</v>
-      </c>
-      <c r="Q14" s="20">
-        <f>S14-P14</f>
-        <v>102</v>
-      </c>
-      <c r="R14" s="33">
-        <f>Q14/IBNR_quarter!R16</f>
-        <v>0.9912297115385954</v>
-      </c>
-      <c r="S14" s="34">
-        <f>SUM(C14:O14)</f>
-        <v>748</v>
-      </c>
-      <c r="T14" s="33">
-        <f>S14/IBNR_quarter!S16</f>
-        <v>0.99879492391742752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="22">
-        <v>60</v>
-      </c>
-      <c r="D15" s="22">
-        <v>419</v>
-      </c>
-      <c r="E15" s="22">
-        <v>437</v>
-      </c>
-      <c r="F15" s="22">
-        <v>319</v>
-      </c>
-      <c r="G15" s="22">
-        <v>200</v>
-      </c>
-      <c r="H15" s="22">
-        <v>86</v>
-      </c>
-      <c r="I15" s="22">
-        <v>41</v>
-      </c>
-      <c r="J15" s="22">
-        <v>24</v>
-      </c>
-      <c r="K15" s="22">
-        <v>9</v>
-      </c>
-      <c r="L15" s="22">
-        <v>4</v>
-      </c>
-      <c r="M15" s="22">
-        <v>1</v>
-      </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-      <c r="O15" s="22">
-        <v>0</v>
-      </c>
-      <c r="P15" s="27">
-        <f>SUM(C15:E15)</f>
-        <v>916</v>
-      </c>
-      <c r="Q15" s="20">
-        <f>S15-P15</f>
-        <v>684</v>
-      </c>
-      <c r="R15" s="33">
-        <f>Q15/IBNR_quarter!R17</f>
-        <v>0.99585407481776467</v>
-      </c>
-      <c r="S15" s="34">
-        <f>SUM(C15:O15)</f>
-        <v>1600</v>
-      </c>
-      <c r="T15" s="33">
-        <f>S15/IBNR_quarter!S17</f>
-        <v>0.99822340014993671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="22">
-        <v>11</v>
-      </c>
-      <c r="D16" s="22">
-        <v>169</v>
-      </c>
-      <c r="E16" s="22">
-        <v>247</v>
-      </c>
-      <c r="F16" s="22">
-        <v>202</v>
-      </c>
-      <c r="G16" s="22">
-        <v>139</v>
-      </c>
-      <c r="H16" s="22">
-        <v>82</v>
-      </c>
-      <c r="I16" s="22">
-        <v>38</v>
-      </c>
-      <c r="J16" s="22">
-        <v>21</v>
-      </c>
-      <c r="K16" s="22">
-        <v>12</v>
-      </c>
-      <c r="L16" s="22">
-        <v>5</v>
-      </c>
-      <c r="M16" s="22">
-        <v>4</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
-      </c>
-      <c r="O16" s="22">
-        <v>1</v>
-      </c>
-      <c r="P16" s="27">
-        <f>SUM(C16:D16)</f>
-        <v>180</v>
-      </c>
-      <c r="Q16" s="20">
-        <f>S16-P16</f>
-        <v>751</v>
-      </c>
-      <c r="R16" s="33">
-        <f>Q16/IBNR_quarter!R18</f>
-        <v>1.030871056339655</v>
-      </c>
-      <c r="S16" s="34">
-        <f>SUM(C16:O16)</f>
-        <v>931</v>
-      </c>
-      <c r="T16" s="33">
-        <f>S16/IBNR_quarter!S18</f>
-        <v>1.0247546796469085</v>
-      </c>
-      <c r="U16" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="22">
-        <v>323</v>
-      </c>
-      <c r="D17" s="22">
-        <v>713</v>
-      </c>
-      <c r="E17" s="22">
-        <v>344</v>
-      </c>
-      <c r="F17" s="22">
-        <v>160</v>
-      </c>
-      <c r="G17" s="22">
-        <v>66</v>
-      </c>
-      <c r="H17" s="22">
-        <v>29</v>
-      </c>
-      <c r="I17" s="22">
-        <v>9</v>
-      </c>
-      <c r="J17" s="22">
-        <v>5</v>
-      </c>
-      <c r="K17" s="22">
-        <v>1</v>
-      </c>
-      <c r="L17" s="22">
-        <v>1</v>
-      </c>
-      <c r="M17" s="22">
-        <v>1</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
-      </c>
-      <c r="O17" s="22">
-        <v>0</v>
-      </c>
-      <c r="P17" s="27">
-        <f>SUM(C17)</f>
-        <v>323</v>
-      </c>
-      <c r="Q17" s="20">
-        <f>S17-P17</f>
-        <v>1329</v>
-      </c>
-      <c r="R17" s="33">
-        <f>Q17/IBNR_quarter!R19</f>
-        <v>0.9039295349531975</v>
-      </c>
-      <c r="S17" s="34">
-        <f>SUM(C17:O17)</f>
-        <v>1652</v>
-      </c>
-      <c r="T17" s="38">
-        <f>S17/IBNR_quarter!S19</f>
-        <v>0.92123376254582678</v>
-      </c>
-      <c r="U17" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="3"/>
-      <c r="U18" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="20">
-        <f>SUM(Q2:Q17)</f>
-        <v>3055</v>
-      </c>
-      <c r="R19" s="33">
-        <f>Q19/IBNR_quarter!R21</f>
-        <v>0.95914341541814463</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="35">
-        <f>AVERAGE(T2:T17)</f>
-        <v>0.99595237027871764</v>
-      </c>
-      <c r="U19" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O20">
-        <f>IF(IBNR_quarter!O4&gt;0,O2/IBNR_quarter!O4,"")</f>
-        <v>3.3305626250888731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O21">
-        <f>IF(IBNR_quarter!O5&gt;0,O3/IBNR_quarter!O5,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O22">
-        <f>IF(IBNR_quarter!O6&gt;0,O4/IBNR_quarter!O6,"")</f>
-        <v>0.4566564702229568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O23">
-        <f>IF(IBNR_quarter!O7&gt;0,O5/IBNR_quarter!O7,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O24">
-        <f>IF(IBNR_quarter!O8&gt;0,O6/IBNR_quarter!O8,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M25">
-        <f>IF(IBNR_quarter!M9&gt;0,M7/IBNR_quarter!M9,"")</f>
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f>IF(IBNR_quarter!N9&gt;0,N7/IBNR_quarter!N9,"")</f>
-        <v>3.5829553805284751</v>
-      </c>
-      <c r="O25">
-        <f>IF(IBNR_quarter!O9&gt;0,O7/IBNR_quarter!O9,"")</f>
-        <v>2.7049857702399072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <f>IF(IBNR_quarter!L10&gt;0,L8/IBNR_quarter!L10,"")</f>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f>IF(IBNR_quarter!M10&gt;0,M8/IBNR_quarter!M10,"")</f>
-        <v>1.1265907666821546</v>
-      </c>
-      <c r="N26">
-        <f>IF(IBNR_quarter!N10&gt;0,N8/IBNR_quarter!N10,"")</f>
-        <v>0.67853372737383288</v>
-      </c>
-      <c r="O26">
-        <f>IF(IBNR_quarter!O10&gt;0,O8/IBNR_quarter!O10,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>IF(IBNR_quarter!K11&gt;0,K9/IBNR_quarter!K11,"")</f>
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f>IF(IBNR_quarter!L11&gt;0,L9/IBNR_quarter!L11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>IF(IBNR_quarter!M11&gt;0,M9/IBNR_quarter!M11,"")</f>
-        <v>1.0413152888307762</v>
-      </c>
-      <c r="N27">
-        <f>IF(IBNR_quarter!N11&gt;0,N9/IBNR_quarter!N11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f>IF(IBNR_quarter!O11&gt;0,O9/IBNR_quarter!O11,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f>IF(IBNR_quarter!J12&gt;0,J10/IBNR_quarter!J12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f>IF(IBNR_quarter!K12&gt;0,K10/IBNR_quarter!K12,"")</f>
-        <v>1.5599277885778342</v>
-      </c>
-      <c r="L28">
-        <f>IF(IBNR_quarter!L12&gt;0,L10/IBNR_quarter!L12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f>IF(IBNR_quarter!M12&gt;0,M10/IBNR_quarter!M12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>IF(IBNR_quarter!N12&gt;0,N10/IBNR_quarter!N12,"")</f>
-        <v>4.2753755173847212</v>
-      </c>
-      <c r="O28">
-        <f>IF(IBNR_quarter!O12&gt;0,O10/IBNR_quarter!O12,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <f>IF(IBNR_quarter!I13&gt;0,I11/IBNR_quarter!I13,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f>IF(IBNR_quarter!J13&gt;0,J11/IBNR_quarter!J13,"")</f>
-        <v>1.0858203466188572</v>
-      </c>
-      <c r="K29">
-        <f>IF(IBNR_quarter!K13&gt;0,K11/IBNR_quarter!K13,"")</f>
-        <v>1.8234397003617349</v>
-      </c>
-      <c r="L29">
-        <f>IF(IBNR_quarter!L13&gt;0,L11/IBNR_quarter!L13,"")</f>
-        <v>1.2204494691232375</v>
-      </c>
-      <c r="M29">
-        <f>IF(IBNR_quarter!M13&gt;0,M11/IBNR_quarter!M13,"")</f>
-        <v>2.2974217624061928</v>
-      </c>
-      <c r="N29">
-        <f>IF(IBNR_quarter!N13&gt;0,N11/IBNR_quarter!N13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f>IF(IBNR_quarter!O13&gt;0,O11/IBNR_quarter!O13,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <f>IF(IBNR_quarter!H14&gt;0,H12/IBNR_quarter!H14,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <f>IF(IBNR_quarter!I14&gt;0,I12/IBNR_quarter!I14,"")</f>
-        <v>0.81733146973443704</v>
-      </c>
-      <c r="J30">
-        <f>IF(IBNR_quarter!J14&gt;0,J12/IBNR_quarter!J14,"")</f>
-        <v>1.5008142318817015</v>
-      </c>
-      <c r="K30">
-        <f>IF(IBNR_quarter!K14&gt;0,K12/IBNR_quarter!K14,"")</f>
-        <v>0.93449549914339414</v>
-      </c>
-      <c r="L30">
-        <f>IF(IBNR_quarter!L14&gt;0,L12/IBNR_quarter!L14,"")</f>
-        <v>0.37522451689370945</v>
-      </c>
-      <c r="M30">
-        <f>IF(IBNR_quarter!M14&gt;0,M12/IBNR_quarter!M14,"")</f>
-        <v>0.67798129785781958</v>
-      </c>
-      <c r="N30">
-        <f>IF(IBNR_quarter!N14&gt;0,N12/IBNR_quarter!N14,"")</f>
-        <v>1.8375344076004843</v>
-      </c>
-      <c r="O30">
-        <f>IF(IBNR_quarter!O14&gt;0,O12/IBNR_quarter!O14,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <f>IF(IBNR_quarter!G15&gt;0,G13/IBNR_quarter!G15,"")</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f>IF(IBNR_quarter!H15&gt;0,H13/IBNR_quarter!H15,"")</f>
-        <v>0.7713635802896317</v>
-      </c>
-      <c r="I31">
-        <f>IF(IBNR_quarter!I15&gt;0,I13/IBNR_quarter!I15,"")</f>
-        <v>0.85608550609411238</v>
-      </c>
-      <c r="J31">
-        <f>IF(IBNR_quarter!J15&gt;0,J13/IBNR_quarter!J15,"")</f>
-        <v>2.2569526978844778</v>
-      </c>
-      <c r="K31">
-        <f>IF(IBNR_quarter!K15&gt;0,K13/IBNR_quarter!K15,"")</f>
-        <v>1.4805940533952155</v>
-      </c>
-      <c r="L31">
-        <f>IF(IBNR_quarter!L15&gt;0,L13/IBNR_quarter!L15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f>IF(IBNR_quarter!M15&gt;0,M13/IBNR_quarter!M15,"")</f>
-        <v>1.0690374928595487</v>
-      </c>
-      <c r="N31">
-        <f>IF(IBNR_quarter!N15&gt;0,N13/IBNR_quarter!N15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f>IF(IBNR_quarter!O15&gt;0,O13/IBNR_quarter!O15,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f>IF(IBNR_quarter!F16&gt;0,F14/IBNR_quarter!F16,"")</f>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>IF(IBNR_quarter!G16&gt;0,G14/IBNR_quarter!G16,"")</f>
-        <v>1.0310334167111661</v>
-      </c>
-      <c r="H32">
-        <f>IF(IBNR_quarter!H16&gt;0,H14/IBNR_quarter!H16,"")</f>
-        <v>0.96281466432726948</v>
-      </c>
-      <c r="I32">
-        <f>IF(IBNR_quarter!I16&gt;0,I14/IBNR_quarter!I16,"")</f>
-        <v>1.0560787628660933</v>
-      </c>
-      <c r="J32">
-        <f>IF(IBNR_quarter!J16&gt;0,J14/IBNR_quarter!J16,"")</f>
-        <v>0.35659802382491457</v>
-      </c>
-      <c r="K32">
-        <f>IF(IBNR_quarter!K16&gt;0,K14/IBNR_quarter!K16,"")</f>
-        <v>1.1163180718432888</v>
-      </c>
-      <c r="L32">
-        <f>IF(IBNR_quarter!L16&gt;0,L14/IBNR_quarter!L16,"")</f>
-        <v>2.2531233282744965</v>
-      </c>
-      <c r="M32">
-        <f>IF(IBNR_quarter!M16&gt;0,M14/IBNR_quarter!M16,"")</f>
-        <v>2.2737985079970127</v>
-      </c>
-      <c r="N32">
-        <f>IF(IBNR_quarter!N16&gt;0,N14/IBNR_quarter!N16,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f>IF(IBNR_quarter!O16&gt;0,O14/IBNR_quarter!O16,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <f>IF(IBNR_quarter!E17&gt;0,E15/IBNR_quarter!E17,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>IF(IBNR_quarter!F17&gt;0,F15/IBNR_quarter!F17,"")</f>
-        <v>1.0094175316243268</v>
-      </c>
-      <c r="G33">
-        <f>IF(IBNR_quarter!G17&gt;0,G15/IBNR_quarter!G17,"")</f>
-        <v>1.0205720940580487</v>
-      </c>
-      <c r="H33">
-        <f>IF(IBNR_quarter!H17&gt;0,H15/IBNR_quarter!H17,"")</f>
-        <v>0.90228808941043581</v>
-      </c>
-      <c r="I33">
-        <f>IF(IBNR_quarter!I17&gt;0,I15/IBNR_quarter!I17,"")</f>
-        <v>0.8380715152843925</v>
-      </c>
-      <c r="J33">
-        <f>IF(IBNR_quarter!J17&gt;0,J15/IBNR_quarter!J17,"")</f>
-        <v>1.2897837434750188</v>
-      </c>
-      <c r="K33">
-        <f>IF(IBNR_quarter!K17&gt;0,K15/IBNR_quarter!K17,"")</f>
-        <v>1.2454267059764927</v>
-      </c>
-      <c r="L33">
-        <f>IF(IBNR_quarter!L17&gt;0,L15/IBNR_quarter!L17,"")</f>
-        <v>1.3892977119372967</v>
-      </c>
-      <c r="M33">
-        <f>IF(IBNR_quarter!M17&gt;0,M15/IBNR_quarter!M17,"")</f>
-        <v>0.87175609713658575</v>
-      </c>
-      <c r="N33">
-        <f>IF(IBNR_quarter!N17&gt;0,N15/IBNR_quarter!N17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f>IF(IBNR_quarter!O17&gt;0,O15/IBNR_quarter!O17,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <f>IF(IBNR_quarter!D18&gt;0,D16/IBNR_quarter!D18,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f>IF(IBNR_quarter!E18&gt;0,E16/IBNR_quarter!E18,"")</f>
-        <v>1.0542466202421423</v>
-      </c>
-      <c r="F34">
-        <f>IF(IBNR_quarter!F18&gt;0,F16/IBNR_quarter!F18,"")</f>
-        <v>0.99676768725232456</v>
-      </c>
-      <c r="G34">
-        <f>IF(IBNR_quarter!G18&gt;0,G16/IBNR_quarter!G18,"")</f>
-        <v>1.0178298257977936</v>
-      </c>
-      <c r="H34">
-        <f>IF(IBNR_quarter!H18&gt;0,H16/IBNR_quarter!H18,"")</f>
-        <v>1.0862847228849435</v>
-      </c>
-      <c r="I34">
-        <f>IF(IBNR_quarter!I18&gt;0,I16/IBNR_quarter!I18,"")</f>
-        <v>0.94912603495860171</v>
-      </c>
-      <c r="J34">
-        <f>IF(IBNR_quarter!J18&gt;0,J16/IBNR_quarter!J18,"")</f>
-        <v>1.0874133327349833</v>
-      </c>
-      <c r="K34">
-        <f>IF(IBNR_quarter!K18&gt;0,K16/IBNR_quarter!K18,"")</f>
-        <v>1.3326805638657939</v>
-      </c>
-      <c r="L34">
-        <f>IF(IBNR_quarter!L18&gt;0,L16/IBNR_quarter!L18,"")</f>
-        <v>1.0033242961213178</v>
-      </c>
-      <c r="M34">
-        <f>IF(IBNR_quarter!M18&gt;0,M16/IBNR_quarter!M18,"")</f>
-        <v>1.4502999198195905</v>
-      </c>
-      <c r="N34">
-        <f>IF(IBNR_quarter!N18&gt;0,N16/IBNR_quarter!N18,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f>IF(IBNR_quarter!O18&gt;0,O16/IBNR_quarter!O18,"")</f>
-        <v>0.52859981937261769</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>IF(IBNR_quarter!C19&gt;0,C17/IBNR_quarter!C19,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>IF(IBNR_quarter!D19&gt;0,D17/IBNR_quarter!D19,"")</f>
-        <v>0.94223101037526713</v>
-      </c>
-      <c r="E35">
-        <f>IF(IBNR_quarter!E19&gt;0,E17/IBNR_quarter!E19,"")</f>
-        <v>0.86666666666666659</v>
-      </c>
-      <c r="F35">
-        <f>IF(IBNR_quarter!F19&gt;0,F17/IBNR_quarter!F19,"")</f>
-        <v>0.88311830607828634</v>
-      </c>
-      <c r="G35">
-        <f>IF(IBNR_quarter!G19&gt;0,G17/IBNR_quarter!G19,"")</f>
-        <v>0.8663279265194449</v>
-      </c>
-      <c r="H35">
-        <f>IF(IBNR_quarter!H19&gt;0,H17/IBNR_quarter!H19,"")</f>
-        <v>0.79468908552529027</v>
-      </c>
-      <c r="I35">
-        <f>IF(IBNR_quarter!I19&gt;0,I17/IBNR_quarter!I19,"")</f>
-        <v>0.6718477286664466</v>
-      </c>
-      <c r="J35">
-        <f>IF(IBNR_quarter!J19&gt;0,J17/IBNR_quarter!J19,"")</f>
-        <v>1.8040355677154583</v>
-      </c>
-      <c r="K35">
-        <f>IF(IBNR_quarter!K19&gt;0,K17/IBNR_quarter!K19,"")</f>
-        <v>0.47338951076407298</v>
-      </c>
-      <c r="L35">
-        <f>IF(IBNR_quarter!L19&gt;0,L17/IBNR_quarter!L19,"")</f>
-        <v>0.69671911540488685</v>
-      </c>
-      <c r="M35">
-        <f>IF(IBNR_quarter!M19&gt;0,M17/IBNR_quarter!M19,"")</f>
-        <v>1.0254082837346379</v>
-      </c>
-      <c r="N35">
-        <f>IF(IBNR_quarter!N19&gt;0,N17/IBNR_quarter!N19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f>IF(IBNR_quarter!O19&gt;0,O17/IBNR_quarter!O19,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" t="str">
-        <f>IF(C19&gt;0,IBNR_quarter!C21/C19,"")</f>
-        <v/>
-      </c>
-      <c r="D37" t="str">
-        <f>IF(D19&gt;0,IBNR_quarter!D21/D19,"")</f>
-        <v/>
-      </c>
-      <c r="E37" t="str">
-        <f>IF(E19&gt;0,IBNR_quarter!E21/E19,"")</f>
-        <v/>
-      </c>
-      <c r="F37" t="str">
-        <f>IF(F19&gt;0,IBNR_quarter!F21/F19,"")</f>
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <f>IF(G19&gt;0,IBNR_quarter!G21/G19,"")</f>
-        <v/>
-      </c>
-      <c r="H37" t="str">
-        <f>IF(H19&gt;0,IBNR_quarter!H21/H19,"")</f>
-        <v/>
-      </c>
-      <c r="I37" t="str">
-        <f>IF(I19&gt;0,IBNR_quarter!I21/I19,"")</f>
-        <v/>
-      </c>
-      <c r="J37" t="str">
-        <f>IF(J19&gt;0,IBNR_quarter!J21/J19,"")</f>
-        <v/>
-      </c>
-      <c r="K37" t="str">
-        <f>IF(K19&gt;0,IBNR_quarter!K21/K19,"")</f>
-        <v/>
-      </c>
-      <c r="L37" t="str">
-        <f>IF(L19&gt;0,IBNR_quarter!L21/L19,"")</f>
-        <v/>
-      </c>
-      <c r="M37" t="str">
-        <f>IF(M19&gt;0,IBNR_quarter!M21/M19,"")</f>
-        <v/>
-      </c>
-      <c r="N37" t="str">
-        <f>IF(N19&gt;0,IBNR_quarter!N21/N19,"")</f>
-        <v/>
-      </c>
-      <c r="O37" t="str">
-        <f>IF(O19&gt;0,IBNR_quarter!O21/O19,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C20:O35">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>